--- a/www/IndicatorsPerCountry/Kenya_ExchangeRatestoUSDollar_TerritorialRef_1963_2012_CCode_404.xlsx
+++ b/www/IndicatorsPerCountry/Kenya_ExchangeRatestoUSDollar_TerritorialRef_1963_2012_CCode_404.xlsx
@@ -195,13 +195,13 @@
     <t>Bosch, Reinoud (2015). Exchange Rates to US Dollar. http://hdl.handle.net/10622/KC0ZHV, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KC0ZHV.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KC0ZHV.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KC0ZHV.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KC0ZHV.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KC0ZHV.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KC0ZHV.bib</t>
   </si>
 </sst>
 </file>
